--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbr/dev/perso/hyper-dimensional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A04D36F-10AD-0647-8B98-E53FF0A8C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593AAB7-24CC-3841-8F60-B0C4132FFB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="820" windowWidth="26820" windowHeight="17440" xr2:uid="{0D434B06-7B3A-4147-9A44-7F2091553BAB}"/>
+    <workbookView xWindow="3180" yWindow="1440" windowWidth="26820" windowHeight="17440" xr2:uid="{0D434B06-7B3A-4147-9A44-7F2091553BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
